--- a/Excel/Facture.xlsx
+++ b/Excel/Facture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21627\Documents\ProjectFacture\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B63707-B8DE-41C3-91C5-43F78105F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B608E7-AFEA-46DD-A5CA-CA1F149440A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{29979449-5116-4513-9D66-8D1F085FCB12}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{29979449-5116-4513-9D66-8D1F085FCB12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ddsdfsd</t>
-  </si>
-  <si>
-    <t>fgdsfh</t>
-  </si>
-  <si>
-    <t>hgfhf</t>
-  </si>
-  <si>
-    <t>jgkf</t>
-  </si>
-  <si>
-    <t>fk</t>
-  </si>
-  <si>
-    <t>yjuy</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,62 +375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D1DE7B-22AE-4304-8362-4268FCA9E552}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>